--- a/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
+++ b/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Arizona-Arkansas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7755BE-2626-D14A-8E73-8F21BD2AED05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{E9093EDA-2C91-3842-BC6F-FC4A6B99F5A1}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="11980" windowHeight="17540" xr2:uid="{998BF662-2228-2A48-92FF-17825CEBE3ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arizona" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkansas" sheetId="3" r:id="rId2"/>
+    <sheet name="Arizona" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkansas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -61,13 +60,19 @@
     <t>Note</t>
   </si>
   <si>
-    <t>* Casa Grande</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Casa Grande</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Empty</t>
+    <t xml:space="preserve">Empty </t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>CENTRAL</t>
@@ -94,19 +99,16 @@
     <t>DOUGLAS</t>
   </si>
   <si>
-    <t>* Duncan</t>
+    <t>Duncan</t>
   </si>
   <si>
     <t>FLAGSTAFF</t>
   </si>
   <si>
-    <t>♦Glendale</t>
-  </si>
-  <si>
-    <t>I ♦ Glendale</t>
-  </si>
-  <si>
-    <t>I GLOBE-MIAMI</t>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>HOLBROOK</t>
@@ -118,10 +120,19 @@
     <t>See Holbrook, Ariz.</t>
   </si>
   <si>
-    <t>* Reams Canyon</t>
-  </si>
-  <si>
-    <t>* Lake Havasu City</t>
+    <t>Reams Canyon</t>
+  </si>
+  <si>
+    <t>Lake Havasu City</t>
+  </si>
+  <si>
+    <t>LAKESIDE</t>
+  </si>
+  <si>
+    <t>See Show Low, Ariz.</t>
+  </si>
+  <si>
+    <t>Mesa</t>
   </si>
   <si>
     <t>MIAMI</t>
@@ -130,7 +141,10 @@
     <t>See Globe-Miami.</t>
   </si>
   <si>
-    <t>t Mohave County</t>
+    <t>Mohave County</t>
+  </si>
+  <si>
+    <t>†</t>
   </si>
   <si>
     <t>MORENCI</t>
@@ -163,13 +177,13 @@
     <t>PARADISE VALLEY</t>
   </si>
   <si>
-    <t>t Paradise Valley</t>
-  </si>
-  <si>
-    <t>* Parker</t>
-  </si>
-  <si>
-    <t>t Phoenix</t>
+    <t>Paradise Valley</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
   </si>
   <si>
     <t>PIMA</t>
@@ -178,37 +192,34 @@
     <t>See Thatcher.</t>
   </si>
   <si>
-    <t>* Pima County</t>
+    <t>Pima County</t>
   </si>
   <si>
     <t>PINETOP</t>
   </si>
   <si>
-    <t>See Show Low, Ariz.</t>
-  </si>
-  <si>
     <t>PRESCOTT</t>
   </si>
   <si>
     <t>SAFFORD</t>
   </si>
   <si>
-    <t>*Salome</t>
-  </si>
-  <si>
-    <t>t Scottsdale</t>
+    <t>Salome</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
   </si>
   <si>
     <t>SEDONA</t>
   </si>
   <si>
-    <t>*Seligman</t>
+    <t>Seligman</t>
   </si>
   <si>
     <t>SHOW LOW</t>
   </si>
   <si>
-    <t>*Sierra Vista</t>
+    <t>Sierra Vista</t>
   </si>
   <si>
     <t>SNOWFLAKE</t>
@@ -220,19 +231,19 @@
     <t>See Safford, Ariz.</t>
   </si>
   <si>
-    <t>*Tanque Verde</t>
+    <t>Tanque Verde</t>
   </si>
   <si>
     <t>TAYLOR</t>
   </si>
   <si>
-    <t>*Tempe</t>
+    <t>Tempe</t>
   </si>
   <si>
     <t>THATCHER</t>
   </si>
   <si>
-    <t>*Tucson</t>
+    <t>Tucson</t>
   </si>
   <si>
     <t>WILLLAMS</t>
@@ -256,10 +267,10 @@
     <t>BERRYVILLE</t>
   </si>
   <si>
-    <t>* Blytheville</t>
-  </si>
-  <si>
-    <t>*Booneville</t>
+    <t>Blytheville</t>
+  </si>
+  <si>
+    <t>Booneville</t>
   </si>
   <si>
     <t>CALICO ROCK</t>
@@ -280,7 +291,7 @@
     <t>CLARKSVILLE</t>
   </si>
   <si>
-    <t>*Conway</t>
+    <t>Conway</t>
   </si>
   <si>
     <t>CORNING</t>
@@ -295,7 +306,7 @@
     <t>DERMOTT</t>
   </si>
   <si>
-    <t>*East Camden</t>
+    <t>East Camden</t>
   </si>
   <si>
     <t>EL DORADO</t>
@@ -307,7 +318,7 @@
     <t>FAYETTEVILLE</t>
   </si>
   <si>
-    <t>*Forrest City</t>
+    <t>Forrest City</t>
   </si>
   <si>
     <t>FT. SMITH</t>
@@ -325,13 +336,13 @@
     <t>HARRISON</t>
   </si>
   <si>
-    <t>*Helena</t>
+    <t>Helena</t>
   </si>
   <si>
     <t>HOPE</t>
   </si>
   <si>
-    <t>*Hot Springs</t>
+    <t>Hot Springs</t>
   </si>
   <si>
     <t>HOXIE</t>
@@ -349,13 +360,13 @@
     <t>LAKE VILLAGE</t>
   </si>
   <si>
-    <t>t Little Rock</t>
+    <t>Little Rock</t>
   </si>
   <si>
     <t>MAGNOLIA</t>
   </si>
   <si>
-    <t>* Mariana</t>
+    <t>Mariana</t>
   </si>
   <si>
     <t>McGEHEE</t>
@@ -373,16 +384,10 @@
     <t>NASHVILLE</t>
   </si>
   <si>
-    <t>r Newark</t>
-  </si>
-  <si>
     <t>NEWPORT</t>
   </si>
   <si>
-    <t>t N. Little Rock</t>
-  </si>
-  <si>
-    <t>♦ N. Little Rock</t>
+    <t>N. Little Rock</t>
   </si>
   <si>
     <t>OZARK</t>
@@ -391,10 +396,10 @@
     <t>PARAGOULD</t>
   </si>
   <si>
-    <t>* Paris</t>
-  </si>
-  <si>
-    <t>t Pine Bluff</t>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Pine Bluff</t>
   </si>
   <si>
     <t>POCAHONTAS</t>
@@ -418,13 +423,13 @@
     <t>See Texarkana, Tex.</t>
   </si>
   <si>
-    <t>*Tuckerman</t>
+    <t>Tuckerman</t>
   </si>
   <si>
     <t>VAN BUREN</t>
   </si>
   <si>
-    <t>*Waldron</t>
+    <t>Waldron</t>
   </si>
   <si>
     <t>WALNUT RIDGE</t>
@@ -433,19 +438,25 @@
     <t>See Hoxie. Ark.</t>
   </si>
   <si>
-    <t>*West Helena</t>
-  </si>
-  <si>
-    <t>*W. Memphis</t>
-  </si>
-  <si>
-    <t>*Wynne</t>
-  </si>
-  <si>
-    <t>LAKESIDE</t>
-  </si>
-  <si>
-    <t>Mesa</t>
+    <t>West Helena</t>
+  </si>
+  <si>
+    <t>W. Memphis</t>
+  </si>
+  <si>
+    <t>Wynne</t>
+  </si>
+  <si>
+    <t>GLOBE-MIAMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AJO</t>
@@ -506,10 +517,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,18 +836,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666A1AC7-7131-D84F-B5DC-B875939F960D}">
-  <dimension ref="A1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F66B4-DA93-9448-AB84-5FA85158B8BE}">
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,10 +880,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -900,17 +913,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>10275</v>
-      </c>
-      <c r="E3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="3">
         <v>19085</v>
       </c>
       <c r="F3" s="1">
@@ -929,73 +942,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1022,9 +1038,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1051,9 +1067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1061,7 +1077,7 @@
       <c r="D8" s="1">
         <v>12000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>23012</v>
       </c>
       <c r="F8" s="1">
@@ -1080,41 +1096,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1122,7 +1141,7 @@
       <c r="D10" s="1">
         <v>24592</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>19937</v>
       </c>
       <c r="F10" s="1">
@@ -1132,7 +1151,7 @@
         <v>5500</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1141,73 +1160,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1234,9 +1259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1244,7 +1269,7 @@
       <c r="D14" s="1">
         <v>3938</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>21155</v>
       </c>
       <c r="F14" s="1">
@@ -1263,169 +1288,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1433,7 +1470,7 @@
       <c r="D20" s="1">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>19815</v>
       </c>
       <c r="F20" s="1">
@@ -1452,9 +1489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1469,7 +1506,7 @@
         <v>338</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>694</v>
@@ -1481,9 +1518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1510,137 +1547,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1648,7 +1697,7 @@
       <c r="D27" s="1">
         <v>12861</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>19541</v>
       </c>
       <c r="F27" s="1">
@@ -1667,9 +1716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1696,91 +1745,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="2">
+        <v>48</v>
+      </c>
+      <c r="E31" s="3">
         <v>23316</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31">
         <v>12</v>
@@ -1789,41 +1844,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1850,134 +1908,146 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="1">
         <v>10000</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1995,7 +2065,7 @@
         <v>800</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -2004,41 +2074,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2046,7 +2119,7 @@
       <c r="D40" s="1">
         <v>3500</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>24228</v>
       </c>
       <c r="F40">
@@ -2065,9 +2138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2094,9 +2167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2104,7 +2177,7 @@
       <c r="D42" s="1">
         <v>23974</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>22521</v>
       </c>
       <c r="F42" s="1">
@@ -2123,162 +2196,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:K56">
+  <sortState ref="A4:L122">
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B744F0-7945-B94D-8C62-9EEE4B563C3E}">
-  <dimension ref="A1:K68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A500D-1E11-4C4F-9B9C-9058605A5EBB}">
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2287,7 +2359,7 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2321,10 +2393,13 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2332,7 +2407,7 @@
       <c r="D2" s="1">
         <v>7129</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>18874</v>
       </c>
       <c r="F2" s="1">
@@ -2351,17 +2426,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2">
         <v>24337</v>
       </c>
       <c r="F3">
@@ -2380,9 +2455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2390,7 +2465,7 @@
       <c r="D4" s="1">
         <v>4015</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>22647</v>
       </c>
       <c r="F4">
@@ -2409,9 +2484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2438,73 +2513,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2512,28 +2593,28 @@
       <c r="D8">
         <v>773</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>24577</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2541,7 +2622,7 @@
       <c r="D9" s="1">
         <v>15823</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>23437</v>
       </c>
       <c r="F9" s="1">
@@ -2560,9 +2641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2570,7 +2651,7 @@
       <c r="D10">
         <v>540</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>23224</v>
       </c>
       <c r="F10">
@@ -2589,9 +2670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2599,7 +2680,7 @@
       <c r="D11" s="1">
         <v>3919</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>23621</v>
       </c>
       <c r="F11">
@@ -2618,41 +2699,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2670,7 +2754,7 @@
         <v>800</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -2679,9 +2763,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2689,28 +2773,28 @@
       <c r="D14" s="1">
         <v>5370</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>24412</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2718,7 +2802,7 @@
       <c r="D15" s="1">
         <v>2859</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>23316</v>
       </c>
       <c r="F15">
@@ -2728,18 +2812,18 @@
         <v>600</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2747,7 +2831,7 @@
       <c r="D16" s="1">
         <v>3665</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>24138</v>
       </c>
       <c r="F16">
@@ -2757,7 +2841,7 @@
         <v>1000</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -2766,41 +2850,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2808,17 +2895,17 @@
       <c r="D18" s="1">
         <v>25292</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>23621</v>
       </c>
       <c r="F18" s="1">
         <v>2800</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <v>12</v>
@@ -2827,9 +2914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2856,9 +2943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2885,49 +2972,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="3">
+        <v>99</v>
+      </c>
+      <c r="E22" s="2">
         <v>22596</v>
       </c>
       <c r="F22" s="1">
@@ -2946,9 +3036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2966,7 +3056,7 @@
         <v>250</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <v>5</v>
@@ -2975,9 +3065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2995,7 +3085,7 @@
         <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24">
         <v>5</v>
@@ -3004,9 +3094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3024,7 +3114,7 @@
         <v>2300</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25">
         <v>5</v>
@@ -3033,56 +3123,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1">
         <v>3500</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26">
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="2">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3">
         <v>24807</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -3091,41 +3184,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3133,7 +3229,7 @@
       <c r="D29" s="1">
         <v>5433</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>23193</v>
       </c>
       <c r="F29">
@@ -3152,9 +3248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3163,27 +3259,27 @@
         <v>1050</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3191,7 +3287,7 @@
       <c r="D31">
         <v>273</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <v>20760</v>
       </c>
       <c r="F31">
@@ -3201,7 +3297,7 @@
         <v>120</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -3210,9 +3306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3220,17 +3316,17 @@
       <c r="D32" s="1">
         <v>26000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>24735</v>
       </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="F32" s="1">
+        <v>1300</v>
       </c>
       <c r="G32" s="1">
         <v>3000</v>
       </c>
-      <c r="H32">
-        <v>7</v>
+      <c r="H32" s="1">
+        <v>7500</v>
       </c>
       <c r="I32">
         <v>20</v>
@@ -3239,9 +3335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3249,7 +3345,7 @@
       <c r="D33" s="1">
         <v>2963</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>24138</v>
       </c>
       <c r="F33">
@@ -3259,7 +3355,7 @@
         <v>600</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33">
         <v>5</v>
@@ -3268,73 +3364,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3342,7 +3444,7 @@
       <c r="D36" s="1">
         <v>10651</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <v>23559</v>
       </c>
       <c r="F36">
@@ -3352,7 +3454,7 @@
         <v>1800</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36">
         <v>12</v>
@@ -3361,41 +3463,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3403,7 +3508,7 @@
       <c r="D38" s="1">
         <v>4448</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>23441</v>
       </c>
       <c r="F38">
@@ -3422,9 +3527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3432,7 +3537,7 @@
       <c r="D39" s="1">
         <v>4500</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <v>23408</v>
       </c>
       <c r="F39" s="1">
@@ -3451,9 +3556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3480,9 +3585,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3500,7 +3605,7 @@
         <v>175</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -3509,9 +3614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3519,7 +3624,7 @@
       <c r="D42" s="1">
         <v>4000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>24730</v>
       </c>
       <c r="F42">
@@ -3538,38 +3643,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43">
         <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43">
         <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3577,7 +3685,7 @@
       <c r="D44" s="1">
         <v>7450</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>23683</v>
       </c>
       <c r="F44" s="1">
@@ -3587,7 +3695,7 @@
         <v>2200</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44">
         <v>12</v>
@@ -3596,73 +3704,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3683,15 +3797,15 @@
         <v>600</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3699,14 +3813,14 @@
       <c r="D48" s="1">
         <v>10731</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>23986</v>
       </c>
       <c r="F48">
         <v>600</v>
       </c>
-      <c r="G48">
-        <v>2</v>
+      <c r="G48" s="1">
+        <v>2500</v>
       </c>
       <c r="H48" s="1">
         <v>2500</v>
@@ -3714,173 +3828,188 @@
       <c r="I48">
         <v>12</v>
       </c>
-      <c r="J48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -3888,7 +4017,7 @@
       <c r="D54" s="1">
         <v>4391</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>22282</v>
       </c>
       <c r="F54">
@@ -3907,9 +4036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -3917,17 +4046,17 @@
       <c r="D55" s="1">
         <v>3533</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>24370</v>
       </c>
       <c r="F55">
         <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -3936,9 +4065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3946,7 +4075,7 @@
       <c r="D56" s="1">
         <v>8000</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <v>20729</v>
       </c>
       <c r="F56" s="1">
@@ -3958,16 +4087,16 @@
       <c r="H56" s="1">
         <v>2000</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>5</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -3975,7 +4104,7 @@
       <c r="D57" s="1">
         <v>10252</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="3">
         <v>23408</v>
       </c>
       <c r="F57">
@@ -3994,9 +4123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4004,7 +4133,7 @@
       <c r="D58" s="1">
         <v>3953</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>19480</v>
       </c>
       <c r="F58">
@@ -4023,9 +4152,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4033,7 +4162,7 @@
       <c r="D59" s="1">
         <v>11895</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="3">
         <v>21276</v>
       </c>
       <c r="F59" s="1">
@@ -4052,38 +4181,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60">
         <v>600</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60">
         <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4091,7 +4223,7 @@
       <c r="D61" s="1">
         <v>8000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>22737</v>
       </c>
       <c r="F61">
@@ -4110,165 +4242,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="1">
         <v>4000</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63">
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>13</v>
+      </c>
+      <c r="L63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L68">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
+++ b/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Arizona-Arkansas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="11980" windowHeight="17540" xr2:uid="{998BF662-2228-2A48-92FF-17825CEBE3ED}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28220" windowHeight="17540" xr2:uid="{998BF662-2228-2A48-92FF-17825CEBE3ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Arizona" sheetId="1" r:id="rId1"/>
     <sheet name="Arkansas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arizona!$D$1:$J$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arkansas!$D$1:$J$68</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -322,9 +326,6 @@
   </si>
   <si>
     <t>FT. SMITH</t>
-  </si>
-  <si>
-    <t>66 000</t>
   </si>
   <si>
     <t>GREEN FOREST</t>
@@ -886,7 +887,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -915,7 +916,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1232,7 +1233,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3014,8 +3015,8 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>99</v>
+      <c r="D22" s="1">
+        <v>66000</v>
       </c>
       <c r="E22" s="2">
         <v>22596</v>
@@ -3038,7 +3039,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3067,7 +3068,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3096,7 +3097,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3125,7 +3126,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3157,7 +3158,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3186,7 +3187,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3221,7 +3222,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3250,7 +3251,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3279,7 +3280,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3308,7 +3309,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3337,7 +3338,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3366,7 +3367,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3401,7 +3402,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3436,7 +3437,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3465,7 +3466,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3500,7 +3501,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -3529,7 +3530,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3558,7 +3559,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3587,7 +3588,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3616,7 +3617,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -3645,7 +3646,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3672,12 +3673,12 @@
         <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3706,7 +3707,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3741,7 +3742,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3776,7 +3777,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3834,7 +3835,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3869,7 +3870,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3904,7 +3905,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3939,7 +3940,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3974,7 +3975,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4009,7 +4010,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4067,7 +4068,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -4096,7 +4097,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4125,7 +4126,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4154,7 +4155,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4183,7 +4184,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -4215,7 +4216,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4244,7 +4245,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4279,7 +4280,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4311,7 +4312,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4346,7 +4347,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4392,24 +4393,24 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
+++ b/Output/1968/Arizona-Arkansas/Arizona-Arkansas.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Arkansas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arizona!$D$1:$J$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arkansas!$D$1:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arizona!$E$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arkansas!$E$1:$K$68</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -465,6 +465,18 @@
   </si>
   <si>
     <t>BISBEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,120 +850,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F66B4-DA93-9448-AB84-5FA85158B8BE}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
         <v>142</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>7049</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1952</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1600</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2200</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>12</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>3000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>19085</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2656</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4000</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>12</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -972,21 +993,24 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1007,105 +1031,117 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>6622</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1956</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2021</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2500</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2520</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>3000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1958</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>550</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>700</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1186</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>12000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>23012</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1200</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>2700</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>3500</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1126,50 +1162,56 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>24592</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19937</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>4700</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5500</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1190,21 +1232,24 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1225,79 +1270,88 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
         <v>139</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>14000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1953</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1500</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>2500</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>5000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>3938</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21155</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1000</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1300</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1240</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1318,21 +1372,24 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1353,21 +1410,24 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1388,18 +1448,21 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1420,21 +1483,24 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
         <v>14</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1455,108 +1521,120 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>11000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>19815</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>1768</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2500</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2450</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>12</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>2963</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1958</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>338</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>48</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>694</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>3000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1959</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>175</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>500</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>300</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1577,21 +1655,24 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
         <v>14</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1612,21 +1693,24 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
         <v>14</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1647,21 +1731,24 @@
         <v>13</v>
       </c>
       <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1682,79 +1769,88 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
         <v>14</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>12861</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19541</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>1925</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>4000</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>4400</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>4648</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1955</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>1400</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>2000</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>3500</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>12</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1775,21 +1871,24 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" t="s">
         <v>14</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1810,50 +1909,56 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
         <v>14</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>23316</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
       </c>
       <c r="G31" t="s">
         <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31">
         <v>12</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1874,50 +1979,56 @@
         <v>13</v>
       </c>
       <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" t="s">
         <v>14</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>3107</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1960</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>914</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>1000</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>1600</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -1938,21 +2049,24 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
         <v>14</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -1973,21 +2087,24 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
         <v>14</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -1995,31 +2112,34 @@
       <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
         <v>10000</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
       <c r="I36" t="s">
         <v>13</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
-      <c r="L36" t="s">
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -2040,50 +2160,56 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" t="s">
         <v>14</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>2893</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>1954</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>425</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>800</v>
       </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38">
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -2104,245 +2230,296 @@
         <v>13</v>
       </c>
       <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" t="s">
         <v>14</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>3500</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>24228</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>550</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>1300</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>650</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>8862</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1956</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>1963</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2000</v>
       </c>
       <c r="H41" s="1">
         <v>2000</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J41">
         <v>5</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>23974</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>22521</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>4300</v>
-      </c>
-      <c r="G42" s="1">
-        <v>8500</v>
       </c>
       <c r="H42" s="1">
         <v>8500</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
+        <v>8500</v>
+      </c>
+      <c r="J42">
         <v>12</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
         <v>36</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
         <v>40</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
         <v>42</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
         <v>65</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:L122">
-    <sortCondition ref="B1"/>
+  <sortState ref="B4:M122">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,178 +2528,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9A500D-1E11-4C4F-9B9C-9058605A5EBB}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>7129</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>18874</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1860</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2500</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2300</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>24337</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1500</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>4015</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>22647</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>300</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1500</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>2500</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1963</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>600</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>800</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2543,21 +2735,24 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2578,137 +2773,152 @@
         <v>13</v>
       </c>
       <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>773</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>24577</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
       <c r="G8" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>15823</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>23437</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>1060</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>2500</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>3000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>540</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>23224</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>45</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>3919</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>23621</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>550</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1500</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2729,137 +2939,152 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>2192</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1966</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>300</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>800</v>
       </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13">
         <v>9</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>5370</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24412</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
       <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
         <v>48</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>2859</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>23316</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>425</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>600</v>
       </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
       <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
         <v>92</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>3665</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>24138</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>121</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1000</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -2880,108 +3105,120 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
         <v>14</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>25292</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23621</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2800</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>48</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
         <v>12</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
         <v>95</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>1500</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1963</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>200</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>600</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>400</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>12</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>30000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1952</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>7200</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>10000</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>8000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>12</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
         <v>97</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -3002,137 +3239,152 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
         <v>14</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>66000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>22596</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>5300</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>8000</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>9000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>12</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
         <v>99</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>1500</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1966</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>125</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>250</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>222</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1955</v>
-      </c>
-      <c r="F24">
-        <v>51</v>
       </c>
       <c r="G24">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>7000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1953</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>1800</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>2300</v>
       </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -3140,60 +3392,66 @@
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1">
         <v>3500</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26">
         <v>12</v>
       </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
         <v>103</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24807</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="s">
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
         <v>12</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -3214,53 +3472,59 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" t="s">
         <v>14</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
         <v>105</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>5433</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>23193</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>450</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>700</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>600</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>1050</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -3269,111 +3533,123 @@
         <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
         <v>48</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
         <v>107</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>273</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>20760</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>80</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>120</v>
       </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31">
         <v>5</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>26000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>24735</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>1300</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>3000</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>7500</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>20</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
         <v>109</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>2963</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>24138</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>97</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>600</v>
       </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33">
         <v>5</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
         <v>110</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -3394,21 +3670,24 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" t="s">
         <v>14</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -3429,50 +3708,56 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
         <v>14</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>10651</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>23559</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>500</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1800</v>
       </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36">
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36">
         <v>12</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3493,166 +3778,184 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" t="s">
         <v>14</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
         <v>113</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>4448</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>23441</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>731</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>1200</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>1052</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>4500</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>23408</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>1025</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>1250</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>1400</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>12</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>3500</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>1960</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>1000</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>1500</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>1600</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>5</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>1096</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1964</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>100</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>175</v>
       </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41">
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41">
         <v>5</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
         <v>117</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>4000</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>24730</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>225</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>650</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>1235</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>12</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
         <v>140</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -3660,60 +3963,66 @@
       <c r="F43" t="s">
         <v>13</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43">
         <v>350</v>
       </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43">
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43">
         <v>12</v>
       </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>7450</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>23683</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>1510</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>2200</v>
       </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44">
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44">
         <v>12</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
         <v>119</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -3734,21 +4043,24 @@
         <v>13</v>
       </c>
       <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" t="s">
         <v>14</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
         <v>119</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -3769,79 +4081,88 @@
         <v>13</v>
       </c>
       <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" t="s">
         <v>14</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
         <v>120</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
         <v>1965</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>1965</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>225</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>400</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>600</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>48</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
         <v>121</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
         <v>10731</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>23986</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>600</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2500</v>
       </c>
       <c r="H48" s="1">
         <v>2500</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J48">
         <v>12</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>122</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -3862,21 +4183,24 @@
         <v>13</v>
       </c>
       <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" t="s">
         <v>14</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -3897,21 +4221,24 @@
         <v>13</v>
       </c>
       <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" t="s">
         <v>14</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3932,21 +4259,24 @@
         <v>13</v>
       </c>
       <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" t="s">
         <v>14</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -3967,21 +4297,24 @@
         <v>13</v>
       </c>
       <c r="K52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" t="s">
         <v>14</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
         <v>123</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -4002,195 +4335,216 @@
         <v>13</v>
       </c>
       <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" t="s">
         <v>14</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s">
         <v>124</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
         <v>4391</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>22282</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>407</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>1200</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>800</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>5</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
         <v>3533</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>24370</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>235</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>48</v>
       </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55">
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55">
         <v>12</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" t="s">
         <v>125</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
         <v>8000</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>20729</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>1400</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>2500</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>2000</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
         <v>10252</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23408</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>334</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>1500</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>2500</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>6</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
         <v>3953</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>19480</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>700</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1200</v>
       </c>
       <c r="H58" s="1">
         <v>1200</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J58">
         <v>5</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s">
         <v>128</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
         <v>11895</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21276</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>3200</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>3800</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>4000</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>5</v>
       </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
         <v>131</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -4198,60 +4552,66 @@
       <c r="F60" t="s">
         <v>13</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60">
         <v>600</v>
       </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60">
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
         <v>132</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
         <v>8000</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <v>22737</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>700</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>900</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>1000</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
         <v>133</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -4272,21 +4632,24 @@
         <v>13</v>
       </c>
       <c r="K62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" t="s">
         <v>14</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
         <v>136</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -4294,31 +4657,34 @@
       <c r="F63" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1">
         <v>4000</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63">
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63">
         <v>12</v>
       </c>
-      <c r="J63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
         <v>137</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -4339,21 +4705,24 @@
         <v>13</v>
       </c>
       <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" t="s">
         <v>14</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
         <v>138</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
+      <c r="C65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -4374,48 +4743,60 @@
         <v>13</v>
       </c>
       <c r="K65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" t="s">
         <v>14</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
         <v>85</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
         <v>129</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L68">
-    <sortCondition ref="B1"/>
+  <sortState ref="B2:M68">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
